--- a/TP1/resultados raíces.xlsx
+++ b/TP1/resultados raíces.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2226f322cfc317e3/Escritorio/Facultad/95.04 Análisis Numérico/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\Numérico\TP1\Analisis_Numerico_fiuba\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B5E69E3F-8D56-4BA8-B789-2BD36FF5D446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC423856-B784-41D9-A4AE-3F1D29FBF6D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultados raíces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>im</t>
   </si>
@@ -81,15 +89,25 @@
   <si>
     <t>Resultado</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +238,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -566,9 +592,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,204 +951,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1.5</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D3" s="1"/>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>1.39413027</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>1.25</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <f>LOG10(ABS((B5-B4)/(B4-B3)))/LOG10(ABS((B4-B3)/(B3-B2)))</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="I4">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="J4" s="1">
         <v>1.876493</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1.375</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D68" si="0">LOG10(ABS((B6-B5)/(B5-B4)))/LOG10(ABS((B5-B4)/(B4-B3)))</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="J5" s="1">
         <v>1.5492468399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>1.4375</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="J6" s="1">
         <v>1.4523931400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1.40625</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="J7" s="1">
         <v>1.50001538</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>1.421875</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="F8" s="1">
+      <c r="J8" s="1">
         <v>1.49999986</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>1.4140625</v>
       </c>
-      <c r="E9">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
+      <c r="J9" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1.41796875</v>
       </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999630670544515</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>1.41601562</v>
       </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000110799340407</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1.41503906</v>
       </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999261345566892</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>1.4145507799999999</v>
       </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000009841</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1.4143066399999999</v>
       </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999999934386</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>1.41418457</v>
       </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99988181895843031</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>1.41424561</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0001181950047304</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1128,8 +1222,12 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1.4142150899999999</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000262406</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1137,8 +1235,12 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>1.41419983</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999995801525</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1146,8 +1248,12 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>1.4142074600000001</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0018920593927649</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1155,8 +1261,12 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>1.41421127</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99433701481292647</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1164,8 +1274,12 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1.41421318</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0113979631778283</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1173,8 +1287,12 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>1.41421413</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0076357099921205</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1182,8 +1300,12 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>1.4142136599999999</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95504589857130218</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1191,8 +1313,12 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>1.4142134200000001</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0313251059388946</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1200,8 +1326,12 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>1.41421354</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999999733047806</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1209,8 +1339,12 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>1.4142136000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000026695219</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1218,8 +1352,12 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>1.41421357</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58496249538211187</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1227,8 +1365,12 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>1.4142135499999999</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.709511279572963</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1236,9 +1378,10 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>1.4142135600000001</v>
       </c>
+      <c r="D29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1248,6 +1391,7 @@
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,6 +1401,7 @@
       <c r="B31" s="1">
         <v>1</v>
       </c>
+      <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,6 +1411,7 @@
       <c r="B32" s="1">
         <v>1.5</v>
       </c>
+      <c r="D32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,6 +1421,10 @@
       <c r="B33" s="1">
         <v>1.4166666699999999</v>
       </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9680993048757354</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,6 +1434,10 @@
       <c r="B34" s="1">
         <v>1.41421569</v>
       </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9986955261171127</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,6 +1447,7 @@
       <c r="B35" s="1">
         <v>1.4142135600000001</v>
       </c>
+      <c r="D35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,6 +1457,7 @@
       <c r="B36" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,6 +1467,7 @@
       <c r="B37" s="1">
         <v>1</v>
       </c>
+      <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1320,6 +1477,7 @@
       <c r="B38" s="1">
         <v>1.3333333300000001</v>
       </c>
+      <c r="D38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,6 +1487,10 @@
       <c r="B39" s="1">
         <v>1.4117647099999999</v>
       </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3964520168132939</v>
+      </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,6 +1500,10 @@
       <c r="B40" s="1">
         <v>1.4142114400000001</v>
       </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0334965399498826</v>
+      </c>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,6 +1513,7 @@
       <c r="B41" s="1">
         <v>1.4142135600000001</v>
       </c>
+      <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1356,6 +1523,7 @@
       <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1364,6 +1532,7 @@
       <c r="B43" s="1">
         <v>2</v>
       </c>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1372,6 +1541,7 @@
       <c r="B44" s="1">
         <v>1</v>
       </c>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1380,6 +1550,10 @@
       <c r="B45" s="1">
         <v>1.3333333300000001</v>
       </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1403139305960281</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1388,6 +1562,10 @@
       <c r="B46" s="1">
         <v>1.4285714300000001</v>
       </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4872871319666214</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -1396,6 +1574,10 @@
       <c r="B47" s="1">
         <v>1.4137930999999999</v>
       </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9131536972322087</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1404,1012 +1586,1429 @@
       <c r="B48" s="1">
         <v>1.4142114400000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4825912466061142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49" s="1">
         <v>1.4142135600000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
       <c r="B50" s="1">
         <v>1.4142135600000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
       <c r="B55" s="1">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
       <c r="B56" s="1">
         <v>1.125</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
       <c r="B57" s="1">
         <v>1.1875</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
       <c r="B58" s="1">
         <v>1.21875</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
       <c r="B59" s="1">
         <v>1.203125</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60" s="1">
         <v>1.1953125</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
       <c r="B61" s="1">
         <v>1.19921875</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999630670544515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
       <c r="B62" s="1">
         <v>1.20117188</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99999630672016904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
       <c r="B63" s="1">
         <v>1.20019531</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000221598834123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
       <c r="B64" s="1">
         <v>1.1997070299999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99998522705860526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
       <c r="B65" s="1">
         <v>1.1999511700000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0000000000019682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
       <c r="B66" s="1">
         <v>1.20007324</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0001181907168211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
       <c r="B67" s="1">
         <v>1.2000122099999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99964547942845283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
       <c r="B68" s="1">
         <v>1.19998169</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0002364276287723</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
       <c r="B69" s="1">
         <v>1.1999969500000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
+        <f t="shared" ref="D69:D132" si="1">LOG10(ABS((B70-B69)/(B69-B68)))/LOG10(ABS((B69-B68)/(B68-B67)))</f>
+        <v>1.000000000010496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>17</v>
       </c>
       <c r="B70" s="1">
         <v>1.2000045800000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0018920593717329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18</v>
       </c>
       <c r="B71" s="1">
         <v>1.20000839</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99433701481292647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19</v>
       </c>
       <c r="B72" s="1">
         <v>1.2000064800000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="1">
         <v>1.0670391100000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" s="1">
         <v>1.11150086</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99441223252583077</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
       <c r="B77" s="1">
         <v>1.1410565699999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99704771121773972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
       <c r="B78" s="1">
         <v>1.16072727</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99836197508579971</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
       <c r="B79" s="1">
         <v>1.1738277699999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99905247447649193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6</v>
       </c>
       <c r="B80" s="1">
         <v>1.1825559400000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99943595504369631</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>7</v>
       </c>
       <c r="B81" s="1">
         <v>1.1883723900000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99964445138938185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8</v>
       </c>
       <c r="B82" s="1">
         <v>1.1922490299999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99977546713238841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>9</v>
       </c>
       <c r="B83" s="1">
         <v>1.1948330300000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99987443133478793</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
       <c r="B84" s="1">
         <v>1.1965555000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99989743616544768</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
       <c r="B85" s="1">
         <v>1.19770373</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99993916254639892</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
       <c r="B86" s="1">
         <v>1.19846918</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99993020088261064</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
       <c r="B87" s="1">
         <v>1.19897947</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D87" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000483314407185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
       <c r="B88" s="1">
         <v>1.1993196500000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99986709842494048</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15</v>
       </c>
       <c r="B89" s="1">
         <v>1.19954644</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D89" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000906277611745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>16</v>
       </c>
       <c r="B90" s="1">
         <v>1.19969763</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000271881506486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>17</v>
       </c>
       <c r="B91" s="1">
         <v>1.19979842</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99967377711751204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>18</v>
       </c>
       <c r="B92" s="1">
         <v>1.19986562</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99969415751818103</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>19</v>
       </c>
       <c r="B93" s="1">
         <v>1.1999104300000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0016523906667365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>20</v>
       </c>
       <c r="B94" s="1">
         <v>1.19994029</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99354320416817565</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21</v>
       </c>
       <c r="B95" s="1">
         <v>1.19996024</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D95" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0053917921014268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>22</v>
       </c>
       <c r="B96" s="1">
         <v>1.19997354</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91434952894211785</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>23</v>
       </c>
       <c r="B97" s="1">
         <v>1.1999827199999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D97" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2015812995727355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24</v>
       </c>
       <c r="B98" s="1">
         <v>1.1999886</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60543648757197799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>25</v>
       </c>
       <c r="B99" s="1">
         <v>1.19999309</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34596339279679</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>26</v>
       </c>
       <c r="B100" s="1">
         <v>1.19999718</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D100" s="1">
+        <f t="shared" si="1"/>
+        <v>-19.167695190723716</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>27</v>
       </c>
       <c r="B101" s="1">
         <v>1.2000216399999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D101" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.69397970537710474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>28</v>
       </c>
       <c r="B102" s="1">
         <v>1.20001457</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75785206251505832</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>29</v>
       </c>
       <c r="B103" s="1">
         <v>1.2000118099999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D103" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.1493274013873973E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>30</v>
       </c>
       <c r="B104" s="1">
         <v>1.20000902</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>1.1984295599999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
       <c r="B108" s="1">
         <v>1.19999996</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0</v>
       </c>
       <c r="B110" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111" s="1">
         <v>1.47540984</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
       <c r="B112" s="1">
         <v>1.4526118100000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D112" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.38810892147735987</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
       <c r="B113" s="1">
         <v>1.37561518</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D113" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.56104969445066666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
       <c r="B114" s="1">
         <v>1.33671826</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D114" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16767567274128226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115" s="1">
         <v>1.3020294100000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D115" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9916506047183717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
       <c r="B116" s="1">
         <v>1.27740141</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D116" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74892479248202659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>7</v>
       </c>
       <c r="B117" s="1">
         <v>1.25834599</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D117" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1300886173019626</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8</v>
       </c>
       <c r="B118" s="1">
         <v>1.24408615</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95614992765422424</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>9</v>
       </c>
       <c r="B119" s="1">
         <v>1.23327849</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D119" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0180548899614226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10</v>
       </c>
       <c r="B120" s="1">
         <v>1.2251281599999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D120" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99354297701954686</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11</v>
       </c>
       <c r="B121" s="1">
         <v>1.2189705799999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D121" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0028271061596268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12</v>
       </c>
       <c r="B122" s="1">
         <v>1.21432221</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D122" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99919353034877323</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>13</v>
       </c>
       <c r="B123" s="1">
         <v>1.2108123500000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D123" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0005124488109374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
       <c r="B124" s="1">
         <v>1.2081625300000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D124" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99998267506233729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>15</v>
       </c>
       <c r="B125" s="1">
         <v>1.206162</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D125" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0001570194349649</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>16</v>
       </c>
       <c r="B126" s="1">
         <v>1.2046517299999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D126" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000174564705926</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>17</v>
       </c>
       <c r="B127" s="1">
         <v>1.20351158</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D127" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0001026987268529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>18</v>
       </c>
       <c r="B128" s="1">
         <v>1.20265087</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D128" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99998963021750553</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>19</v>
       </c>
       <c r="B129" s="1">
         <v>1.2020011100000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D129" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0001550976056053</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20</v>
       </c>
       <c r="B130" s="1">
         <v>1.2015106200000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D130" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99981238405270811</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>21</v>
       </c>
       <c r="B131" s="1">
         <v>1.20114034</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D131" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0001430383435215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>22</v>
       </c>
       <c r="B132" s="1">
         <v>1.2008608199999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D132" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0001069866091734</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>23</v>
       </c>
       <c r="B133" s="1">
         <v>1.20064982</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D133" s="1">
+        <f t="shared" ref="D133:D175" si="2">LOG10(ABS((B134-B133)/(B133-B132)))/LOG10(ABS((B133-B132)/(B132-B131)))</f>
+        <v>0.99992447367460091</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24</v>
       </c>
       <c r="B134" s="1">
         <v>1.2004905400000001</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D134" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99992688543327846</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>25</v>
       </c>
       <c r="B135" s="1">
         <v>1.2003702999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D135" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99995375317921353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>26</v>
       </c>
       <c r="B136" s="1">
         <v>1.20027953</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D136" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0001502704406171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>27</v>
       </c>
       <c r="B137" s="1">
         <v>1.2002110100000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D137" s="1">
+        <f t="shared" si="2"/>
+        <v>1.000277231827341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>28</v>
       </c>
       <c r="B138" s="1">
         <v>1.20015929</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D138" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99900653861522737</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>29</v>
       </c>
       <c r="B139" s="1">
         <v>1.2001202399999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D139" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0040828531013901</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>30</v>
       </c>
       <c r="B140" s="1">
         <v>1.20009079</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D140" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9920382414738883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>31</v>
       </c>
       <c r="B141" s="1">
         <v>1.20006853</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D141" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0117798340506909</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>32</v>
       </c>
       <c r="B142" s="1">
         <v>1.20005176</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D142" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0095162219431557</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>33</v>
       </c>
       <c r="B143" s="1">
         <v>1.20003916</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D143" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95481261456142774</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>34</v>
       </c>
       <c r="B144" s="1">
         <v>1.2000295700000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D144" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1584916601317961</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>35</v>
       </c>
       <c r="B145" s="1">
         <v>1.2000225799999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73515624528251922</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>36</v>
       </c>
       <c r="B146" s="1">
         <v>1.2000170400000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D146" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3794917607793387</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>37</v>
       </c>
       <c r="B147" s="1">
         <v>1.2000130200000001</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D147" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.7467283242593776E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>38</v>
       </c>
       <c r="B148" s="1">
         <v>1.2000089899999999</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D148" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>39</v>
       </c>
       <c r="B149" s="1">
         <v>1.2000089899999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
       <c r="B152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D154" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.13025600124513445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
       <c r="B155" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D155" s="1">
+        <f t="shared" si="2"/>
+        <v>10.385261528026406</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
       <c r="B156" s="1">
         <v>1.5941176500000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D156" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71724949110468728</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
       <c r="B157" s="1">
         <v>1.49282165</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D157" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4828626856435667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
       <c r="B158" s="1">
         <v>1.50000296</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D158" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9449673504215363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4</v>
       </c>
       <c r="B159" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>13</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>0</v>
       </c>
       <c r="B162" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163" s="1">
         <v>1.4030303</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
       <c r="B164" s="1">
         <v>1.4864316</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D164" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6055675226816941</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
       <c r="B165" s="1">
         <v>1.4999600900000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D165" s="1">
+        <f t="shared" si="2"/>
+        <v>3.2030539824917916</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4</v>
       </c>
       <c r="B166" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>16</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
       <c r="B168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
       <c r="B169" s="1">
         <v>1.39413027</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
       <c r="B170" s="1">
         <v>1.876493</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D170" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.920569840998037</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
       <c r="B171" s="1">
         <v>1.5492468399999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D171" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1380468802751063</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
       <c r="B172" s="1">
         <v>1.4523931400000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D172" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58307618412838214</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
       <c r="B173" s="1">
         <v>1.50001538</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D173" s="1">
+        <f t="shared" si="2"/>
+        <v>11.309911626267883</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6</v>
       </c>
       <c r="B174" s="1">
         <v>1.49999986</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D174" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58641001051378594</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
       <c r="B175" s="1">
         <v>1.5</v>
       </c>
+      <c r="D175" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP1/resultados raíces.xlsx
+++ b/TP1/resultados raíces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\Numérico\TP1\Analisis_Numerico_fiuba\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC423856-B784-41D9-A4AE-3F1D29FBF6D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DADBFB3-F6BD-44DB-A91D-8DC97A340A0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>im</t>
   </si>
@@ -90,13 +90,16 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Lambda</t>
   </si>
   <si>
-    <t>Alfa</t>
+    <t>Alfa =</t>
   </si>
   <si>
-    <t>Lambda</t>
+    <t>Miren esos números, dan lástima.</t>
+  </si>
+  <si>
+    <t>Ya estoy harto de este tp.</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -251,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +432,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -592,11 +601,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,42 +969,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <f>B29</f>
+        <v>1.4142135600000001</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1">
+        <f>D28</f>
+        <v>1.709511279572963</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -995,14 +1018,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1010,14 +1033,14 @@
         <v>1.5</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>1.39413027</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1029,14 +1052,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="I4">
+      <c r="G4">
+        <f xml:space="preserve"> ABS(B5-C$1) / (ABS(B4-C$1) ^ D4)</f>
+        <v>0.23879611403589368</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1.876493</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1048,14 +1075,18 @@
         <v>1</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="I5">
+      <c r="G5">
+        <f t="shared" ref="G5:G28" si="1" xml:space="preserve"> ABS(B6-C$1) / (ABS(B5-C$1) ^ D5)</f>
+        <v>0.59383641781056995</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1.5492468399999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1066,14 +1097,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.34198271612149056</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1.4523931400000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1084,14 +1119,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.96206219329041531</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>1.50001538</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1102,14 +1141,19 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.9716920056816144E-2</v>
+      </c>
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>1.49999986</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1120,14 +1164,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>24.858930226384413</v>
+      </c>
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1139,8 +1187,12 @@
         <v>0.99999630670544515</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.4798752744214016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1152,8 +1204,12 @@
         <v>1.0000110799340407</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.45811892892751988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1165,8 +1221,12 @@
         <v>0.99999261345566892</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40848251524350532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1178,8 +1238,12 @@
         <v>1.0000000000009841</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.27602158828255369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1191,8 +1255,17 @@
         <v>0.99999999999934386</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.31145251396632584</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1204,8 +1277,17 @@
         <v>0.99988181895843031</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.1041893201204753</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1217,8 +1299,12 @@
         <v>1.0001181950047304</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4.7796333810119503E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1230,8 +1316,12 @@
         <v>1.0000000000262406</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8.9738562134748996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1243,8 +1333,12 @@
         <v>0.99999999995801525</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.44428259265269437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1256,8 +1350,12 @@
         <v>1.0018920593927649</v>
       </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.38403615513827433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1269,8 +1367,12 @@
         <v>0.99433701481292647</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.15417286617477352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1282,8 +1384,12 @@
         <v>1.0113979631778283</v>
       </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.7752873111145009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1295,8 +1401,12 @@
         <v>1.0076357099921205</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.1957958455006272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1308,8 +1418,12 @@
         <v>0.95504589857130218</v>
       </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.67834296674836536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1321,8 +1435,12 @@
         <v>1.0313251059388946</v>
       </c>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.23420719212422481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1334,8 +1452,12 @@
         <v>0.99999999733047806</v>
       </c>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.9999998942496928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1347,8 +1469,12 @@
         <v>1.0000000026695219</v>
       </c>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.25000000998063915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1360,8 +1486,12 @@
         <v>0.58496249538211187</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>4.7829954926336554E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1373,8 +1503,12 @@
         <v>1.709511279572963</v>
       </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1384,7 +1518,7 @@
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1528,7 @@
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1404,7 +1538,7 @@
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1821,7 +1955,7 @@
         <v>1.1999969500000001</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:D132" si="1">LOG10(ABS((B70-B69)/(B69-B68)))/LOG10(ABS((B69-B68)/(B68-B67)))</f>
+        <f t="shared" ref="D69:D132" si="2">LOG10(ABS((B70-B69)/(B69-B68)))/LOG10(ABS((B69-B68)/(B68-B67)))</f>
         <v>1.000000000010496</v>
       </c>
     </row>
@@ -1833,7 +1967,7 @@
         <v>1.2000045800000001</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0018920593717329</v>
       </c>
     </row>
@@ -1845,7 +1979,7 @@
         <v>1.20000839</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99433701481292647</v>
       </c>
     </row>
@@ -1893,7 +2027,7 @@
         <v>1.11150086</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99441223252583077</v>
       </c>
     </row>
@@ -1905,7 +2039,7 @@
         <v>1.1410565699999999</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99704771121773972</v>
       </c>
     </row>
@@ -1917,7 +2051,7 @@
         <v>1.16072727</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99836197508579971</v>
       </c>
     </row>
@@ -1929,7 +2063,7 @@
         <v>1.1738277699999999</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99905247447649193</v>
       </c>
     </row>
@@ -1941,7 +2075,7 @@
         <v>1.1825559400000001</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99943595504369631</v>
       </c>
     </row>
@@ -1953,7 +2087,7 @@
         <v>1.1883723900000001</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99964445138938185</v>
       </c>
     </row>
@@ -1965,7 +2099,7 @@
         <v>1.1922490299999999</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99977546713238841</v>
       </c>
     </row>
@@ -1977,7 +2111,7 @@
         <v>1.1948330300000001</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99987443133478793</v>
       </c>
     </row>
@@ -1989,7 +2123,7 @@
         <v>1.1965555000000001</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99989743616544768</v>
       </c>
     </row>
@@ -2001,7 +2135,7 @@
         <v>1.19770373</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99993916254639892</v>
       </c>
     </row>
@@ -2013,7 +2147,7 @@
         <v>1.19846918</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99993020088261064</v>
       </c>
     </row>
@@ -2025,7 +2159,7 @@
         <v>1.19897947</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000483314407185</v>
       </c>
     </row>
@@ -2037,7 +2171,7 @@
         <v>1.1993196500000001</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99986709842494048</v>
       </c>
     </row>
@@ -2049,7 +2183,7 @@
         <v>1.19954644</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000906277611745</v>
       </c>
     </row>
@@ -2061,7 +2195,7 @@
         <v>1.19969763</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000271881506486</v>
       </c>
     </row>
@@ -2073,7 +2207,7 @@
         <v>1.19979842</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99967377711751204</v>
       </c>
     </row>
@@ -2085,7 +2219,7 @@
         <v>1.19986562</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99969415751818103</v>
       </c>
     </row>
@@ -2097,7 +2231,7 @@
         <v>1.1999104300000001</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0016523906667365</v>
       </c>
     </row>
@@ -2109,7 +2243,7 @@
         <v>1.19994029</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99354320416817565</v>
       </c>
     </row>
@@ -2121,7 +2255,7 @@
         <v>1.19996024</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0053917921014268</v>
       </c>
     </row>
@@ -2133,7 +2267,7 @@
         <v>1.19997354</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91434952894211785</v>
       </c>
     </row>
@@ -2145,7 +2279,7 @@
         <v>1.1999827199999999</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2015812995727355</v>
       </c>
     </row>
@@ -2157,7 +2291,7 @@
         <v>1.1999886</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60543648757197799</v>
       </c>
     </row>
@@ -2169,7 +2303,7 @@
         <v>1.19999309</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.34596339279679</v>
       </c>
     </row>
@@ -2181,7 +2315,7 @@
         <v>1.19999718</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-19.167695190723716</v>
       </c>
     </row>
@@ -2193,7 +2327,7 @@
         <v>1.2000216399999999</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.69397970537710474</v>
       </c>
     </row>
@@ -2205,7 +2339,7 @@
         <v>1.20001457</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75785206251505832</v>
       </c>
     </row>
@@ -2217,7 +2351,7 @@
         <v>1.2000118099999999</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1493274013873973E-2</v>
       </c>
     </row>
@@ -2301,7 +2435,7 @@
         <v>1.4526118100000001</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.38810892147735987</v>
       </c>
     </row>
@@ -2313,7 +2447,7 @@
         <v>1.37561518</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.56104969445066666</v>
       </c>
     </row>
@@ -2325,7 +2459,7 @@
         <v>1.33671826</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16767567274128226</v>
       </c>
     </row>
@@ -2337,7 +2471,7 @@
         <v>1.3020294100000001</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9916506047183717</v>
       </c>
     </row>
@@ -2349,7 +2483,7 @@
         <v>1.27740141</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74892479248202659</v>
       </c>
     </row>
@@ -2361,7 +2495,7 @@
         <v>1.25834599</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1300886173019626</v>
       </c>
     </row>
@@ -2373,7 +2507,7 @@
         <v>1.24408615</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95614992765422424</v>
       </c>
     </row>
@@ -2385,7 +2519,7 @@
         <v>1.23327849</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0180548899614226</v>
       </c>
     </row>
@@ -2397,7 +2531,7 @@
         <v>1.2251281599999999</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99354297701954686</v>
       </c>
     </row>
@@ -2409,7 +2543,7 @@
         <v>1.2189705799999999</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0028271061596268</v>
       </c>
     </row>
@@ -2421,7 +2555,7 @@
         <v>1.21432221</v>
       </c>
       <c r="D122" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99919353034877323</v>
       </c>
     </row>
@@ -2433,7 +2567,7 @@
         <v>1.2108123500000001</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0005124488109374</v>
       </c>
     </row>
@@ -2445,7 +2579,7 @@
         <v>1.2081625300000001</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99998267506233729</v>
       </c>
     </row>
@@ -2457,7 +2591,7 @@
         <v>1.206162</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001570194349649</v>
       </c>
     </row>
@@ -2469,7 +2603,7 @@
         <v>1.2046517299999999</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000174564705926</v>
       </c>
     </row>
@@ -2481,7 +2615,7 @@
         <v>1.20351158</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001026987268529</v>
       </c>
     </row>
@@ -2493,7 +2627,7 @@
         <v>1.20265087</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99998963021750553</v>
       </c>
     </row>
@@ -2505,7 +2639,7 @@
         <v>1.2020011100000001</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001550976056053</v>
       </c>
     </row>
@@ -2517,7 +2651,7 @@
         <v>1.2015106200000001</v>
       </c>
       <c r="D130" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99981238405270811</v>
       </c>
     </row>
@@ -2529,7 +2663,7 @@
         <v>1.20114034</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001430383435215</v>
       </c>
     </row>
@@ -2541,7 +2675,7 @@
         <v>1.2008608199999999</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0001069866091734</v>
       </c>
     </row>
@@ -2553,7 +2687,7 @@
         <v>1.20064982</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" ref="D133:D175" si="2">LOG10(ABS((B134-B133)/(B133-B132)))/LOG10(ABS((B133-B132)/(B132-B131)))</f>
+        <f t="shared" ref="D133:D174" si="3">LOG10(ABS((B134-B133)/(B133-B132)))/LOG10(ABS((B133-B132)/(B132-B131)))</f>
         <v>0.99992447367460091</v>
       </c>
     </row>
@@ -2565,7 +2699,7 @@
         <v>1.2004905400000001</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99992688543327846</v>
       </c>
     </row>
@@ -2577,7 +2711,7 @@
         <v>1.2003702999999999</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99995375317921353</v>
       </c>
     </row>
@@ -2589,7 +2723,7 @@
         <v>1.20027953</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0001502704406171</v>
       </c>
     </row>
@@ -2601,7 +2735,7 @@
         <v>1.2002110100000001</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.000277231827341</v>
       </c>
     </row>
@@ -2613,7 +2747,7 @@
         <v>1.20015929</v>
       </c>
       <c r="D138" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99900653861522737</v>
       </c>
     </row>
@@ -2625,7 +2759,7 @@
         <v>1.2001202399999999</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0040828531013901</v>
       </c>
     </row>
@@ -2637,7 +2771,7 @@
         <v>1.20009079</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.9920382414738883</v>
       </c>
     </row>
@@ -2649,7 +2783,7 @@
         <v>1.20006853</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0117798340506909</v>
       </c>
     </row>
@@ -2661,7 +2795,7 @@
         <v>1.20005176</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0095162219431557</v>
       </c>
     </row>
@@ -2673,7 +2807,7 @@
         <v>1.20003916</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95481261456142774</v>
       </c>
     </row>
@@ -2685,7 +2819,7 @@
         <v>1.2000295700000001</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1584916601317961</v>
       </c>
     </row>
@@ -2697,7 +2831,7 @@
         <v>1.2000225799999999</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73515624528251922</v>
       </c>
     </row>
@@ -2709,7 +2843,7 @@
         <v>1.2000170400000001</v>
       </c>
       <c r="D146" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3794917607793387</v>
       </c>
     </row>
@@ -2721,7 +2855,7 @@
         <v>1.2000130200000001</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.7467283242593776E-3</v>
       </c>
     </row>
@@ -2733,7 +2867,7 @@
         <v>1.2000089899999999</v>
       </c>
       <c r="D148" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -2784,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="D154" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.13025600124513445</v>
       </c>
     </row>
@@ -2796,7 +2930,7 @@
         <v>1.3</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.385261528026406</v>
       </c>
     </row>
@@ -2808,7 +2942,7 @@
         <v>1.5941176500000001</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71724949110468728</v>
       </c>
     </row>
@@ -2820,7 +2954,7 @@
         <v>1.49282165</v>
       </c>
       <c r="D157" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4828626856435667</v>
       </c>
     </row>
@@ -2832,7 +2966,7 @@
         <v>1.50000296</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.9449673504215363</v>
       </c>
     </row>
@@ -2886,7 +3020,7 @@
         <v>1.4864316</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.6055675226816941</v>
       </c>
     </row>
@@ -2898,7 +3032,7 @@
         <v>1.4999600900000001</v>
       </c>
       <c r="D165" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2030539824917916</v>
       </c>
     </row>
@@ -2946,7 +3080,7 @@
         <v>1.876493</v>
       </c>
       <c r="D170" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.920569840998037</v>
       </c>
     </row>
@@ -2958,7 +3092,7 @@
         <v>1.5492468399999999</v>
       </c>
       <c r="D171" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1380468802751063</v>
       </c>
     </row>
@@ -2970,7 +3104,7 @@
         <v>1.4523931400000001</v>
       </c>
       <c r="D172" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58307618412838214</v>
       </c>
     </row>
@@ -2982,7 +3116,7 @@
         <v>1.50001538</v>
       </c>
       <c r="D173" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.309911626267883</v>
       </c>
     </row>
@@ -2994,7 +3128,7 @@
         <v>1.49999986</v>
       </c>
       <c r="D174" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.58641001051378594</v>
       </c>
     </row>
